--- a/biology/Botanique/Jardin_exotique_de_Monaco/Jardin_exotique_de_Monaco.xlsx
+++ b/biology/Botanique/Jardin_exotique_de_Monaco/Jardin_exotique_de_Monaco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin exotique de Monaco est un jardin botanique situé à Monaco, géré par la mairie de Monaco. Il est situé à la base de la falaise du quartier ordonnancé monégasque dit du « Jardin exotique », lui même situé dans le quartier traditionnel de La Condamine.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conçu par l'ingénieur monégasque Louis Notari sur les vœux du prince Louis II, le jardin a été ouvert au public en 1931 mais officiellement inauguré seulement en 1933. Les travaux se poursuivront encore et le jardin ne sera achevé et conforme à son état actuel que vers 1938-1939. Mais ce n'est qu'après la guerre, grâce à son directeur Louis Vatrican, qu'il est devenu une institution d'une valeur scientifique réelle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conçu par l'ingénieur monégasque Louis Notari sur les vœux du prince Louis II, le jardin a été ouvert au public en 1931 mais officiellement inauguré seulement en 1933. Les travaux se poursuivront encore et le jardin ne sera achevé et conforme à son état actuel que vers 1938-1939. Mais ce n'est qu'après la guerre, grâce à son directeur Louis Vatrican, qu'il est devenu une institution d'une valeur scientifique réelle.
 Il présente beaucoup de plantes succulentes particulièrement des cactus, originaires de plusieurs zones sèches lointaines (Sud-Ouest des États-Unis, Mexique, Amérique Centrale et du Sud, Afrique du Sud et Orientale).
 Le jardin abrite en son sein le Musée d'anthropologie préhistorique, inauguré en 1960.
 Il est fermé à la visite en 2021 durant la pandémie de Covid-19.
